--- a/donut.xlsx
+++ b/donut.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eden\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eden\Desktop\Minecraft_Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90DBD87-BA8E-41FF-AE20-8734DDF52324}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AC2F32-12E1-4D94-BA6E-9CEA91C67E3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="1410" windowWidth="21600" windowHeight="14250" xr2:uid="{65867B45-05EE-4A9C-A909-9CDF0D203D54}"/>
+    <workbookView xWindow="5595" yWindow="885" windowWidth="21600" windowHeight="14250" xr2:uid="{65867B45-05EE-4A9C-A909-9CDF0D203D54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,17 +30,6 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="2">
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -52,7 +41,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,18 +69,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,15 +100,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A213F5-6D0F-418F-93B7-C6AC6F25973F}">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI18" sqref="AI18"/>
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -463,41 +438,31 @@
     <col min="1" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="7">
-        <v>13</v>
-      </c>
+      <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="AB1" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="5">
-        <v>12</v>
-      </c>
+      <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="AB2" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="5"/>
@@ -505,9 +470,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5">
-        <v>11</v>
-      </c>
+      <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -515,11 +478,8 @@
       <c r="S3" s="5"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="AB3" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="5"/>
@@ -529,9 +489,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="5">
-        <v>10</v>
-      </c>
+      <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -541,11 +499,8 @@
       <c r="U4" s="5"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="AB4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
@@ -556,9 +511,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5">
-        <v>9</v>
-      </c>
+      <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -569,11 +522,8 @@
       <c r="V5" s="5"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="AB5" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -584,9 +534,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="7">
-        <v>8</v>
-      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -597,11 +545,8 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="2"/>
-      <c r="AB6" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -613,9 +558,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4">
-        <v>7</v>
-      </c>
+      <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -627,11 +570,8 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="2"/>
-      <c r="AB7" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="5"/>
@@ -644,9 +584,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4">
-        <v>6</v>
-      </c>
+      <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -659,11 +597,8 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AB8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -676,9 +611,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4">
-        <v>5</v>
-      </c>
+      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -691,11 +624,8 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="2"/>
-      <c r="AB9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -708,9 +638,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4">
-        <v>4</v>
-      </c>
+      <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -723,11 +651,8 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="2"/>
-      <c r="AB10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -741,9 +666,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="7">
-        <v>3</v>
-      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -757,11 +680,8 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -775,9 +695,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="3">
-        <v>2</v>
-      </c>
+      <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -791,11 +709,8 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -809,9 +724,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="7">
-        <v>1</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -825,94 +738,37 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5">
-        <v>11</v>
-      </c>
-      <c r="D14" s="6">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4">
-        <v>8</v>
-      </c>
-      <c r="G14" s="4">
-        <v>7</v>
-      </c>
-      <c r="H14" s="4">
-        <v>6</v>
-      </c>
-      <c r="I14" s="4">
-        <v>5</v>
-      </c>
-      <c r="J14" s="4">
-        <v>4</v>
-      </c>
-      <c r="K14" s="4">
-        <v>3</v>
-      </c>
-      <c r="L14" s="4">
-        <v>2</v>
-      </c>
-      <c r="M14" s="4">
-        <v>1</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>1</v>
-      </c>
-      <c r="P14" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>3</v>
-      </c>
-      <c r="R14" s="4">
-        <v>4</v>
-      </c>
-      <c r="S14" s="4">
-        <v>5</v>
-      </c>
-      <c r="T14" s="4">
-        <v>6</v>
-      </c>
-      <c r="U14" s="4">
-        <v>7</v>
-      </c>
-      <c r="V14" s="4">
-        <v>8</v>
-      </c>
-      <c r="W14" s="4">
-        <v>9</v>
-      </c>
-      <c r="X14" s="6">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>11</v>
-      </c>
-      <c r="Z14" s="5">
-        <v>12</v>
-      </c>
-      <c r="AA14" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -926,9 +782,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
+      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -942,11 +796,8 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -960,9 +811,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="4">
-        <v>2</v>
-      </c>
+      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -976,11 +825,8 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -994,9 +840,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4">
-        <v>3</v>
-      </c>
+      <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -1010,11 +854,8 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1027,9 +868,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="6">
-        <v>4</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1042,11 +881,8 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="2"/>
-      <c r="AB18" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1059,9 +895,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="3">
-        <v>5</v>
-      </c>
+      <c r="N19" s="3"/>
       <c r="O19" s="2"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -1074,11 +908,8 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="2"/>
-      <c r="AB19" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="5"/>
@@ -1091,9 +922,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3">
-        <v>6</v>
-      </c>
+      <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -1106,11 +935,8 @@
       <c r="X20" s="5"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AB20" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1122,9 +948,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3">
-        <v>7</v>
-      </c>
+      <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -1136,11 +960,8 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="2"/>
-      <c r="AB21" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1151,9 +972,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="6">
-        <v>8</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -1164,11 +983,8 @@
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="2"/>
-      <c r="AB22" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="5"/>
@@ -1179,9 +995,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5">
-        <v>9</v>
-      </c>
+      <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -1192,11 +1006,8 @@
       <c r="V23" s="5"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="AB23" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="5"/>
@@ -1206,9 +1017,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="5">
-        <v>10</v>
-      </c>
+      <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
@@ -1218,11 +1027,8 @@
       <c r="U24" s="5"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="AB24" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="5"/>
@@ -1230,9 +1036,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="5">
-        <v>11</v>
-      </c>
+      <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
@@ -1240,385 +1044,30 @@
       <c r="S25" s="5"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="AB25" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5">
-        <v>12</v>
-      </c>
+      <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="AB26" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="6">
-        <v>13</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="AB27" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1">
-        <v>4</v>
-      </c>
-      <c r="E28" s="1">
-        <v>5</v>
-      </c>
-      <c r="F28" s="1">
-        <v>6</v>
-      </c>
-      <c r="G28" s="1">
-        <v>7</v>
-      </c>
-      <c r="H28" s="1">
-        <v>8</v>
-      </c>
-      <c r="I28" s="1">
-        <v>9</v>
-      </c>
-      <c r="J28" s="1">
-        <v>10</v>
-      </c>
-      <c r="K28" s="1">
-        <v>11</v>
-      </c>
-      <c r="L28" s="1">
-        <v>12</v>
-      </c>
-      <c r="M28" s="1">
-        <v>13</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O28" s="1">
-        <v>15</v>
-      </c>
-      <c r="P28" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>17</v>
-      </c>
-      <c r="R28" s="1">
-        <v>18</v>
-      </c>
-      <c r="S28" s="1">
-        <v>19</v>
-      </c>
-      <c r="T28" s="1">
-        <v>20</v>
-      </c>
-      <c r="U28" s="1">
-        <v>21</v>
-      </c>
-      <c r="V28" s="1">
-        <v>22</v>
-      </c>
-      <c r="W28" s="1">
-        <v>23</v>
-      </c>
-      <c r="X28" s="1">
-        <v>24</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>25</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>26</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N29" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>27</v>
-      </c>
-      <c r="B30" s="1">
-        <v>26</v>
-      </c>
-      <c r="C30" s="1">
-        <v>25</v>
-      </c>
-      <c r="D30" s="1">
-        <v>24</v>
-      </c>
-      <c r="E30" s="1">
-        <v>23</v>
-      </c>
-      <c r="F30" s="1">
-        <v>22</v>
-      </c>
-      <c r="G30" s="1">
-        <v>21</v>
-      </c>
-      <c r="H30" s="1">
-        <v>20</v>
-      </c>
-      <c r="I30" s="1">
-        <v>19</v>
-      </c>
-      <c r="J30" s="1">
-        <v>18</v>
-      </c>
-      <c r="K30" s="1">
-        <v>17</v>
-      </c>
-      <c r="L30" s="1">
-        <v>16</v>
-      </c>
-      <c r="M30" s="1">
-        <v>15</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O30" s="1">
-        <v>13</v>
-      </c>
-      <c r="P30" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>11</v>
-      </c>
-      <c r="R30" s="1">
-        <v>10</v>
-      </c>
-      <c r="S30" s="1">
-        <v>9</v>
-      </c>
-      <c r="T30" s="1">
-        <v>8</v>
-      </c>
-      <c r="U30" s="1">
-        <v>7</v>
-      </c>
-      <c r="V30" s="1">
-        <v>6</v>
-      </c>
-      <c r="W30" s="1">
-        <v>5</v>
-      </c>
-      <c r="X30" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N31" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1">
-        <v>4</v>
-      </c>
-      <c r="E32" s="1">
-        <v>5</v>
-      </c>
-      <c r="F32" s="1">
-        <v>6</v>
-      </c>
-      <c r="G32" s="1">
-        <v>7</v>
-      </c>
-      <c r="H32" s="1">
-        <v>8</v>
-      </c>
-      <c r="I32" s="1">
-        <v>9</v>
-      </c>
-      <c r="J32" s="1">
-        <v>10</v>
-      </c>
-      <c r="K32" s="1">
-        <v>11</v>
-      </c>
-      <c r="L32" s="1">
-        <v>12</v>
-      </c>
-      <c r="M32" s="1">
-        <v>13</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O32" s="1">
-        <v>1</v>
-      </c>
-      <c r="P32" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>3</v>
-      </c>
-      <c r="R32" s="1">
-        <v>4</v>
-      </c>
-      <c r="S32" s="1">
-        <v>5</v>
-      </c>
-      <c r="T32" s="1">
-        <v>6</v>
-      </c>
-      <c r="U32" s="1">
-        <v>7</v>
-      </c>
-      <c r="V32" s="1">
-        <v>8</v>
-      </c>
-      <c r="W32" s="1">
-        <v>9</v>
-      </c>
-      <c r="X32" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>11</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>12</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>13</v>
-      </c>
-      <c r="B33" s="1">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1">
-        <v>11</v>
-      </c>
-      <c r="D33" s="1">
-        <v>10</v>
-      </c>
-      <c r="E33" s="1">
-        <v>9</v>
-      </c>
-      <c r="F33" s="1">
-        <v>8</v>
-      </c>
-      <c r="G33" s="1">
-        <v>7</v>
-      </c>
-      <c r="H33" s="1">
-        <v>6</v>
-      </c>
-      <c r="I33" s="1">
-        <v>5</v>
-      </c>
-      <c r="J33" s="1">
-        <v>4</v>
-      </c>
-      <c r="K33" s="1">
-        <v>3</v>
-      </c>
-      <c r="L33" s="1">
-        <v>2</v>
-      </c>
-      <c r="M33" s="1">
-        <v>1</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O33" s="1">
-        <v>13</v>
-      </c>
-      <c r="P33" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>11</v>
-      </c>
-      <c r="R33" s="1">
-        <v>10</v>
-      </c>
-      <c r="S33" s="1">
-        <v>9</v>
-      </c>
-      <c r="T33" s="1">
-        <v>8</v>
-      </c>
-      <c r="U33" s="1">
-        <v>7</v>
-      </c>
-      <c r="V33" s="1">
-        <v>6</v>
-      </c>
-      <c r="W33" s="1">
-        <v>5</v>
-      </c>
-      <c r="X33" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA33" s="1">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
